--- a/medicine/Mort/Cimetière_du_Calvaire_(Queens)/Cimetière_du_Calvaire_(Queens).xlsx
+++ b/medicine/Mort/Cimetière_du_Calvaire_(Queens)/Cimetière_du_Calvaire_(Queens).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_du_Calvaire_(Queens)</t>
+          <t>Cimetière_du_Calvaire_(Queens)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière du Calvaire (en anglais le Calvary Cemetery) est un cimetière new-yorkais créé en 1848[1] dans le quartier de Woodside, dans le Queens.
-Il est géré par l'archidiocèse de New York[2]. Plus de trois millions de personnes y sont enterrées.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière du Calvaire (en anglais le Calvary Cemetery) est un cimetière new-yorkais créé en 1848 dans le quartier de Woodside, dans le Queens.
+Il est géré par l'archidiocèse de New York. Plus de trois millions de personnes y sont enterrées.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_du_Calvaire_(Queens)</t>
+          <t>Cimetière_du_Calvaire_(Queens)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Personnalités inhumées</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Al Smith, homme politique, candidat à l'élection présidentielle de 1928
 Annie Moore, première immigrante arrivée aux Etats-Unis par Ellis Island.
@@ -524,9 +538,43 @@
 Texas Guinan
 Robert Harron, acteur américain.
 James Hayden, acteur américain.
-Joe Spinell, acteur américain.
-Personnalités militaires
-Edward Brown, Jr. (1841–1911), récipiendaire de la médaille d'honneur de la guerre de Sécession
+Joe Spinell, acteur américain.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Cimetière_du_Calvaire_(Queens)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_du_Calvaire_(Queens)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Personnalités inhumées</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Personnalités militaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Edward Brown, Jr. (1841–1911), récipiendaire de la médaille d'honneur de la guerre de Sécession
 Thomas Burke (1842–1902), récipiendaire de la médaille d'honneur de la guerre de Sécession
 Richard Byrnes (1833–1864), officier de la guerre de Sécession et commandant de la brigade irlandaise – 1st, Section 3, range 23, plot W, grave 5/8
 Dennis Conlan (1838–1870), récipiendaire de la médaille d'honneur de la guerre de Sécession
@@ -558,34 +606,36 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Cimeti%C3%A8re_du_Calvaire_(Queens)</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cimetière_du_Calvaire_(Queens)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Mort/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_du_Calvaire_(Queens)</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Dans la culture populaire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Une scène du film Le Parrain (1972) de Francis Ford Coppola y a été tournée.
-La première scène du film Sexe Intentions (1999) de Roger Kumble montre une vue aérienne du cimetière[3].</t>
+La première scène du film Sexe Intentions (1999) de Roger Kumble montre une vue aérienne du cimetière.</t>
         </is>
       </c>
     </row>
